--- a/tests/test-files/test_helpers/input/att_batch_subset_1.xlsx
+++ b/tests/test-files/test_helpers/input/att_batch_subset_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jennifer Tramsu\Desktop\frank-gu-lab\disco-data-processing\tests\test-files\test_wrangling\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdaf2c4ef198b934/Documents/GitHub/disco-data-processing/tests/test-files/test_helpers/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E052974-B988-44FF-807A-FE5C195421A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,13 +445,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -728,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -10458,7 +10458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -11368,7 +11368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -12523,7 +12523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -12838,7 +12838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -13013,7 +13013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -13223,7 +13223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -13363,7 +13363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -13468,7 +13468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -13503,7 +13503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -13643,7 +13643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -13678,7 +13678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -13748,7 +13748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -13783,7 +13783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -13818,7 +13818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -13888,7 +13888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -13923,7 +13923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -13958,7 +13958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -14203,7 +14203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -14273,7 +14273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -14343,7 +14343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -14623,7 +14623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -14798,7 +14798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -14833,7 +14833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -14938,7 +14938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -14973,7 +14973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -15008,7 +15008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -15043,7 +15043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -15078,7 +15078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
